--- a/PCB_Project/Project Outputs for PCB_Project/BOM-Feb3.xlsx
+++ b/PCB_Project/Project Outputs for PCB_Project/BOM-Feb3.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\AltiumProjects\PanelMonitor\PCB_Project\Project Outputs for PCB_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\AltiumProjects\PanelMonitorRepo\PCB_Project\Project Outputs for PCB_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59913205-5962-48AC-8280-12E03BB6B09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785494B1-5FF2-4933-B933-F1FE142B77C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C50F7064-81EA-4167-9D9B-1D05F7D73478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FF8C5E6-14D9-43A8-9035-3C1B2FE0B422}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-Feb3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BOM-Feb3'!$A$1:$J$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-Feb3'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>Comment</t>
   </si>
@@ -68,76 +69,52 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C9, C10, C11, C12</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25</t>
   </si>
   <si>
     <t>CAPC2012X04M</t>
   </si>
   <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C5, C6, C7</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>C13, C15, C17, C18</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C14, C16, C25</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>C23, C24</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>Diode, PJGBLC03C, SS34, LED1, Header 2, Header 6, CTM480272T53, NPN, MOSFET-N, LM358, MAX485, ADS101x, RX-8025T, ACEIRMC W5500 Module, TLV76133 - 3.3V, TPS82150</t>
-  </si>
-  <si>
-    <t>Default Diode, [NoValue], Typical RED GaAs LED, Header, 2-Pin, Header, 6-Pin, NPN Bipolar Transistor, N-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D6, D7, D8, D9, D10, P1, P2, P3, P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, Q1, Q2, Q3, U2, U3, U4, U5, U6, U7, U8, U9</t>
-  </si>
-  <si>
-    <t>DIOC2012X04M, HDR1X2, WURTH- WR-TBL 2pin 5mmpitch, HDR1X6, CF31201D0R0-05-NH, SOT95P245X110-3N, SOIC127P600X155-8N, VSSOP_10, SOP127P740X320-14N, W5500Module, SOT230P700X180-4N, TPS82150SIL</t>
-  </si>
-  <si>
-    <t>Diode, SP4021-01FTG, LED1, Header 2, Header 6, CTM480272T53, NPN, MOSFET-N, LM358, MAX485, ADS101x, RX-8025T, ACEIRMC W5500 Module, Generic LDO, TPS82150</t>
+    <t>100pF, 10pF, 100nF, 22uF, 4.7uF, 470nF, 10uF, 3.3nF, 1uF</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Default Diode</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4</t>
+  </si>
+  <si>
+    <t>DIOC2012X04M</t>
+  </si>
+  <si>
+    <t>PJGBLC03C</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D6, D7, D8</t>
+  </si>
+  <si>
+    <t>SP4021-01FTG</t>
+  </si>
+  <si>
+    <t>SS34</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>Typical RED GaAs LED</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -152,13 +129,73 @@
     <t>MG2029-601Y</t>
   </si>
   <si>
-    <t>Res1, Res3</t>
+    <t>Header 2</t>
+  </si>
+  <si>
+    <t>Header, 2-Pin</t>
+  </si>
+  <si>
+    <t>P1, P3, P5, P7, P10</t>
+  </si>
+  <si>
+    <t>HDR1X2</t>
+  </si>
+  <si>
+    <t>P2, P4, P6, P8, P11, P12</t>
+  </si>
+  <si>
+    <t>WURTH- WR-TBL 2pin 5mmpitch</t>
+  </si>
+  <si>
+    <t>Header 6</t>
+  </si>
+  <si>
+    <t>Header, 6-Pin</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>HDR1X6</t>
+  </si>
+  <si>
+    <t>CTM480272T53</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>CF31201D0R0-05-NH</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>NPN Bipolar Transistor</t>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
+    <t>SOT95P245X110-3N</t>
+  </si>
+  <si>
+    <t>MOSFET-N</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Res1</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R45</t>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12</t>
   </si>
   <si>
     <t>1K</t>
@@ -167,58 +204,10 @@
     <t>Res3</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>R14, R17, R19, R20, R21, R22, R23, R24, R25, R26, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41, R42, R43</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>R15, R16, R18</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R27, R28</t>
-  </si>
-  <si>
-    <t>2.2k</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>120R</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>78.8k</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>60R</t>
+    <t>R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49</t>
+  </si>
+  <si>
+    <t>4.7k, 0R, 10k, 2.2k, 120R, 1K, 100K, 78.8k, 15k, 60R</t>
   </si>
   <si>
     <t>ESP32-S3-WROOM-1-N8R8</t>
@@ -231,16 +220,156 @@
   </si>
   <si>
     <t>XCVR_ESP32S3WROOM1N8R8</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>U2, U3</t>
+  </si>
+  <si>
+    <t>SOIC127P600X155-8N</t>
+  </si>
+  <si>
+    <t>MAX485</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>ADS101x</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>VSSOP_10</t>
+  </si>
+  <si>
+    <t>RX-8025T</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOP127P740X320-14N</t>
+  </si>
+  <si>
+    <t>ACEIRMC W5500 Module</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>W5500Module</t>
+  </si>
+  <si>
+    <t>TLV76133 - 3.3V</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>SOT230P700X180-4N</t>
+  </si>
+  <si>
+    <t>Generic LDO</t>
+  </si>
+  <si>
+    <t>TPS82150</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>TPS82150SIL</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>These are jumper stype connectors</t>
+  </si>
+  <si>
+    <t>AIN, 15V, low wattage</t>
+  </si>
+  <si>
+    <t>RTC - skip for now</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>P/N</t>
+  </si>
+  <si>
+    <t>1801-TS4148RBGCT-ND</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>These are ESP tvs diodes. Footprint is wrong. We placed 2012s, but we should have placed a SOD323 or equiv</t>
+  </si>
+  <si>
+    <t>NO need to pop for now</t>
+  </si>
+  <si>
+    <t>Conenctor for Screen</t>
+  </si>
+  <si>
+    <t>MMBT3904TPMSCT-ND</t>
+  </si>
+  <si>
+    <t>T2N7002AKLMCT-ND</t>
+  </si>
+  <si>
+    <t>1965-ESP32-S3-WROOM-1-N8R8CT-ND</t>
+  </si>
+  <si>
+    <t>497-1591-1-ND</t>
+  </si>
+  <si>
+    <t>MAX485CSA+TCT-ND</t>
+  </si>
+  <si>
+    <t>296-ADS1015LIDGSRCT-ND</t>
+  </si>
+  <si>
+    <t>296-TLV76133DCYRCT-ND</t>
+  </si>
+  <si>
+    <t>296-50509-1-ND</t>
+  </si>
+  <si>
+    <t>Ferrite beads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,17 +413,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -626,18 +758,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F568B92D-73C0-4D28-8AEA-9D81249A258F}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876C6261-5FF8-4715-B24D-F8FF0243FC79}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,8 +794,20 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -677,493 +824,588 @@
         <v>7</v>
       </c>
       <c r="F2" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="1"/>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="G11" s="1"/>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G13" s="1"/>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="I16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+      <c r="I22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
+      <c r="I23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J23" xr:uid="{876C6261-5FF8-4715-B24D-F8FF0243FC79}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="K23" r:id="rId1" display="https://www.digikey.ca/en/products/detail/texas-instruments/TPS82150SILR/8106163" xr:uid="{9F9ECFBF-9BF6-43AA-B0D5-0A8929E582FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>